--- a/data/trans_dic/P15D$ingresado-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15D$ingresado-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.1182239394697556</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.1945267105800988</v>
+        <v>0.1945267105800989</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07312128741304506</v>
+        <v>0.0770592744810213</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07425076964140702</v>
+        <v>0.07438696845642931</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05983207625890098</v>
+        <v>0.05837162050132969</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1707652688219115</v>
+        <v>0.1555969663910161</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02140362866186648</v>
+        <v>0.02153682558211618</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05876538991468925</v>
+        <v>0.05684014463669593</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0448668500942785</v>
+        <v>0.04348621861852181</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1021277275933341</v>
+        <v>0.09377000764767206</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06655418051756019</v>
+        <v>0.05815986163025396</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07705448864970103</v>
+        <v>0.08125033311294462</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06961327319646331</v>
+        <v>0.06663186378777726</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1430279450063346</v>
+        <v>0.1430988890129184</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4129031251000789</v>
+        <v>0.4072130976550783</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2528213974191255</v>
+        <v>0.2480889660362234</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.256068440399438</v>
+        <v>0.2395259303741424</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4296922954494591</v>
+        <v>0.431947773228206</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1971549690357019</v>
+        <v>0.1915324816225248</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1768423168146465</v>
+        <v>0.1815405791330695</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2033924423705712</v>
+        <v>0.2008666559731904</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2293524037473867</v>
+        <v>0.218830786713521</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.225889828302437</v>
+        <v>0.2276291710526822</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1781564557462771</v>
+        <v>0.1832844445643018</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1877841772008219</v>
+        <v>0.1897537667931616</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2658507755998445</v>
+        <v>0.261609660910164</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04529761523677828</v>
+        <v>0.04428211323766511</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03639735596720849</v>
+        <v>0.03569662272502814</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04127666210424066</v>
+        <v>0.04235386883483855</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07470984895141788</v>
+        <v>0.07435024473687457</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0272278243279945</v>
+        <v>0.02919983309919382</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0302158424430046</v>
+        <v>0.03126212698641045</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05971138783360767</v>
+        <v>0.06325852076749248</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04188038677679261</v>
+        <v>0.03781357020230516</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04108983653272907</v>
+        <v>0.04107197721837552</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05205069479939481</v>
+        <v>0.05168306716601642</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.08205614067084294</v>
+        <v>0.08263156833271149</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1989269441292082</v>
+        <v>0.2044478912675519</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1097845527037005</v>
+        <v>0.1113194725654603</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1444160285492767</v>
+        <v>0.1516699522864448</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1818129567561812</v>
+        <v>0.182328202942405</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1607450330047625</v>
+        <v>0.1747978280404364</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1207847257064258</v>
+        <v>0.1308126092658051</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1639996261423252</v>
+        <v>0.1577852709441981</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2108314674428758</v>
+        <v>0.2100449910211086</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1609126246870586</v>
+        <v>0.1473073924458599</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1008853384521719</v>
+        <v>0.1022845841168756</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1303067812278045</v>
+        <v>0.130036733489917</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1790047586034827</v>
+        <v>0.1685615694055977</v>
       </c>
     </row>
     <row r="10">
@@ -980,36 +980,36 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05496527511122768</v>
+        <v>0.05577300805818975</v>
       </c>
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="n">
-        <v>0.05320751336940772</v>
+        <v>0.05448706379281942</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04621162588540104</v>
+        <v>0.06258864161369586</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07349943744515806</v>
+        <v>0.07062061964151893</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0142423884554069</v>
+        <v>0.01554318937440015</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0330204072591898</v>
+        <v>0.03347751634406215</v>
       </c>
       <c r="L11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1002843010112201</v>
+        <v>0.1046848237728641</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05177453172734228</v>
+        <v>0.04792971383543092</v>
       </c>
     </row>
     <row r="12">
@@ -1020,36 +1020,36 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4771168374903956</v>
+        <v>0.4818389985539656</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.3876295199789146</v>
+        <v>0.4090091632449264</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4506063312389865</v>
+        <v>0.4846417116351815</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.1895256308316323</v>
+        <v>0.1758486121612576</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3819612003294758</v>
+        <v>0.4021249295481907</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1661400705823268</v>
+        <v>0.1453792647013378</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3309262783242369</v>
+        <v>0.3411244198045402</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.0934065445514707</v>
+        <v>0.09894731525930878</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3276158593602002</v>
+        <v>0.3480642244268445</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2934863583039696</v>
+        <v>0.2800133916864718</v>
       </c>
     </row>
     <row r="13">
@@ -1108,40 +1108,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08150827468456871</v>
+        <v>0.08172693928123792</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05475226850371391</v>
+        <v>0.05322362364521764</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07244610445857949</v>
+        <v>0.07344407209332224</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1117366232818305</v>
+        <v>0.112218773425347</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02040711089419837</v>
+        <v>0.01968920605883851</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04701171180665895</v>
+        <v>0.05018772134421914</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06627189459887682</v>
+        <v>0.06500667462374754</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.083635415255917</v>
+        <v>0.08391445242336873</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06372169424785272</v>
+        <v>0.06251196491602909</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06114219030358154</v>
+        <v>0.05944796526871439</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.08110599798108747</v>
+        <v>0.08198613236729833</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1086344385204172</v>
+        <v>0.1100507489128892</v>
       </c>
     </row>
     <row r="15">
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2111226384653651</v>
+        <v>0.215573056269215</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1189526984087123</v>
+        <v>0.1192482498006994</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.16200734729061</v>
+        <v>0.1719469369686871</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.229193680515544</v>
+        <v>0.2277500133091173</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.122219228497166</v>
+        <v>0.1168116804212149</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1168307868652389</v>
+        <v>0.1178503247475314</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1622197284071195</v>
+        <v>0.1623006533364053</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1726758195809728</v>
+        <v>0.1718976683766195</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1509301942085568</v>
+        <v>0.1501177379075172</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1089272852534433</v>
+        <v>0.1077011240625908</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1482316729635482</v>
+        <v>0.1487446226060614</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1801211938190841</v>
+        <v>0.179890905442893</v>
       </c>
     </row>
     <row r="16">
@@ -1455,40 +1455,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1841</v>
+        <v>1940</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5554</v>
+        <v>5565</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2735</v>
+        <v>2668</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6462</v>
+        <v>5888</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>6574</v>
+        <v>6358</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3347</v>
+        <v>3244</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>8632</v>
+        <v>7926</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>4706</v>
+        <v>4112</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>14384</v>
+        <v>15167</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>8375</v>
+        <v>8016</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>17501</v>
+        <v>17510</v>
       </c>
     </row>
     <row r="7">
@@ -1499,40 +1499,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10394</v>
+        <v>10251</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>18913</v>
+        <v>18559</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>11703</v>
+        <v>10947</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>16261</v>
+        <v>16346</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>8976</v>
+        <v>8720</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>19783</v>
+        <v>20308</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>15173</v>
+        <v>14985</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>19385</v>
+        <v>18496</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>15971</v>
+        <v>16094</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>33257</v>
+        <v>34214</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>22591</v>
+        <v>22828</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>32531</v>
+        <v>32012</v>
       </c>
     </row>
     <row r="8">
@@ -1635,40 +1635,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3556</v>
+        <v>3476</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6625</v>
+        <v>6497</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5002</v>
+        <v>5132</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>10476</v>
+        <v>10425</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3096</v>
+        <v>3320</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2558</v>
+        <v>2647</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>6630</v>
+        <v>7023</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>4755</v>
+        <v>4294</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>12151</v>
+        <v>12146</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>10714</v>
+        <v>10638</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>20616</v>
+        <v>20761</v>
       </c>
     </row>
     <row r="11">
@@ -1679,40 +1679,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>15616</v>
+        <v>16050</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19982</v>
+        <v>20262</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>17500</v>
+        <v>18379</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>25493</v>
+        <v>25566</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>5633</v>
+        <v>6125</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>13734</v>
+        <v>14874</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>13884</v>
+        <v>13358</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>23408</v>
+        <v>23321</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>18271</v>
+        <v>16726</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>29834</v>
+        <v>30247</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>26822</v>
+        <v>26766</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>44974</v>
+        <v>42350</v>
       </c>
     </row>
     <row r="12">
@@ -1815,36 +1815,36 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1066</v>
+        <v>1082</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>1639</v>
+        <v>1678</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1926</v>
+        <v>2608</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2279</v>
+        <v>2190</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>502</v>
+        <v>548</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1078</v>
+        <v>1093</v>
       </c>
       <c r="L14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>6198</v>
+        <v>6470</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>3982</v>
+        <v>3686</v>
       </c>
     </row>
     <row r="15">
@@ -1855,36 +1855,36 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9256</v>
+        <v>9348</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>11937</v>
+        <v>12596</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>18776</v>
+        <v>20195</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>5454</v>
+        <v>5060</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>11843</v>
+        <v>12469</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>5855</v>
+        <v>5123</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>10800</v>
+        <v>11133</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>5121</v>
+        <v>5425</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>20248</v>
+        <v>21511</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>22571</v>
+        <v>21535</v>
       </c>
     </row>
     <row r="16">
@@ -1987,40 +1987,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>10032</v>
+        <v>10059</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>15488</v>
+        <v>15056</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>14321</v>
+        <v>14518</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>24552</v>
+        <v>24658</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1914</v>
+        <v>1847</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>11957</v>
+        <v>12765</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>12609</v>
+        <v>12369</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>19302</v>
+        <v>19366</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>13820</v>
+        <v>13558</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>32847</v>
+        <v>31937</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>31465</v>
+        <v>31806</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>48942</v>
+        <v>49580</v>
       </c>
     </row>
     <row r="19">
@@ -2031,40 +2031,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>25984</v>
+        <v>26532</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>33649</v>
+        <v>33732</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>32025</v>
+        <v>33990</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>50360</v>
+        <v>50043</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>11465</v>
+        <v>10958</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>29715</v>
+        <v>29975</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>30865</v>
+        <v>30880</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>39852</v>
+        <v>39672</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>32734</v>
+        <v>32558</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>58518</v>
+        <v>57859</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>57506</v>
+        <v>57705</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>81148</v>
+        <v>81044</v>
       </c>
     </row>
     <row r="20">
